--- a/WCMC.Stat.OneWayANOVA/inst/www/template.xlsx
+++ b/WCMC.Stat.OneWayANOVA/inst/www/template.xlsx
@@ -509,7 +509,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -592,42 +592,45 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:K3" ca="1" si="0">RAND()</f>
+        <v>0.12261538018229146</v>
+      </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:K3" ca="1" si="0">RAND()</f>
-        <v>0.71321212260254618</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.98270459635227547</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21845872424196255</v>
+        <v>0.85651624675851123</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90861700520645239</v>
+        <v>0.63924870290712288</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85180548180052673</v>
+        <v>4.6622703775955121E-2</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31749564170242206</v>
+        <v>0.57884846748893148</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72108064617749212</v>
+        <v>0.42628277705781792</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59744460784373465</v>
+        <v>0.15926752632339392</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.911927109762428E-2</v>
+        <v>0.52202531193338486</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27133740090502378</v>
+        <v>0.9780877136883358</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -636,43 +639,43 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:K22" ca="1" si="1">RAND()</f>
-        <v>0.64753460434487586</v>
+        <v>0.8917087003483477</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7867883665749108</v>
+        <v>0.70995950892948501</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71038001492147562</v>
+        <v>0.16724573770130469</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8484734452327799</v>
+        <v>0.36504472989621839</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20309318564662493</v>
+        <v>0.36118136870749973</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8842925610233815</v>
+        <v>0.40148454482056006</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56996558809984532</v>
+        <v>0.20088135819502917</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69298871530674855</v>
+        <v>0.95295186380023622</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62901739052745365</v>
+        <v>0.9556026047551065</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9430593989722299</v>
+        <v>0.54558683989943535</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -681,43 +684,43 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83966860557851031</v>
+        <v>0.18185197275295928</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94786355711726111</v>
+        <v>0.19670265559849354</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9923451374337846E-2</v>
+        <v>0.3544173280534153</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56492148817446852</v>
+        <v>0.10484057436017713</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71181960793552546</v>
+        <v>0.11578723395370616</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49618572704344388</v>
+        <v>0.43064210835404482</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93179946957529014</v>
+        <v>0.77381036795979563</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56270834315285678</v>
+        <v>0.46752298663778513</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75096801628359744</v>
+        <v>0.72077218363523787</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77158979709865649</v>
+        <v>0.49217633152933826</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -726,43 +729,43 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93103442868758712</v>
+        <v>2.8883251761379625E-2</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95895742872089595</v>
+        <v>0.736271827966818</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58831669725965507</v>
+        <v>0.15553439500759669</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3239616667451205</v>
+        <v>0.25206421070927953</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9733755712947314</v>
+        <v>0.99341446390434684</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77813547428050778</v>
+        <v>0.9857907694227076</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54793056776548044</v>
+        <v>0.49923899245037373</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44768479416207407</v>
+        <v>0.12590446338376304</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32103822457959141</v>
+        <v>0.67407239842633082</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79344226745080559</v>
+        <v>0.74855466496473677</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -771,43 +774,43 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2761459079189782</v>
+        <v>0.12394694011927387</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50431674053625453</v>
+        <v>7.6668095491565391E-2</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55599317815820537</v>
+        <v>0.98746634029835822</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70638431106360045</v>
+        <v>0.14746458804613793</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16756775858128981</v>
+        <v>0.55586597240224933</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.493209329814155</v>
+        <v>0.63942848517877326</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15631325155510745</v>
+        <v>0.41655512354914281</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3939946371052665</v>
+        <v>0.51962386714779707</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9115665033532467E-2</v>
+        <v>0.88231285088424993</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0184678602657637E-2</v>
+        <v>0.26687486460940546</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -816,43 +819,43 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58298701310436885</v>
+        <v>0.71350582923749528</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51749818065304454</v>
+        <v>8.926930369959285E-3</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68584692977528983</v>
+        <v>0.3108203950836913</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9623613194716284</v>
+        <v>0.4557064052593105</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28913075584738734</v>
+        <v>9.9362324857756978E-2</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5175828352304057E-3</v>
+        <v>0.32362561249945188</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94030636451071015</v>
+        <v>0.20818360018372417</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8487065284578126E-3</v>
+        <v>0.89797448864855911</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19048596562124354</v>
+        <v>0.82497091200974093</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21391905174253012</v>
+        <v>0.65141399987578807</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -861,43 +864,43 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4503379445848283E-2</v>
+        <v>0.89224280237780784</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2096697237211034E-2</v>
+        <v>3.366977401989113E-2</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35309054046789046</v>
+        <v>0.521169775015207</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93604630307378234</v>
+        <v>0.65600205607666051</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89918428401266348</v>
+        <v>0.53652210819529933</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42378606572156463</v>
+        <v>0.80505182240453277</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8992286844432823</v>
+        <v>0.72489351887434206</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90201176591597687</v>
+        <v>0.53400622414427434</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5722134683481341E-2</v>
+        <v>2.3238155615738831E-2</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8111229853517995</v>
+        <v>0.61766926178248971</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -906,43 +909,43 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81330729752433462</v>
+        <v>0.9305059584743316</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70911720678214596</v>
+        <v>5.2568547519405651E-2</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73326961886191389</v>
+        <v>0.88795808537100429</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47813973232785034</v>
+        <v>0.70931453229481256</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15873505295428381</v>
+        <v>0.971526706565354</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1023529945255572E-2</v>
+        <v>0.64983860978868557</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65953370718480853</v>
+        <v>0.76450742147474904</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51603635562481553</v>
+        <v>0.85215190962441856</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19528401473529966</v>
+        <v>0.72081125778848232</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6436116221330761</v>
+        <v>0.45556881435329111</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -951,43 +954,43 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8702034607030853</v>
+        <v>0.83416094950592024</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.743289903129146</v>
+        <v>0.76786222553044081</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63762058278496103</v>
+        <v>0.30670877092143778</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83160388312361477</v>
+        <v>0.44617269834985473</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72445493520480264</v>
+        <v>0.40964223450790482</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7674259899126308E-2</v>
+        <v>0.29497823152080782</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89828219180370406</v>
+        <v>0.98178178916715342</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61861625296496614</v>
+        <v>0.81532698274191451</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45452822425113693</v>
+        <v>0.39061304459739599</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28987048408560867</v>
+        <v>0.4803317982650589</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -996,43 +999,43 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8.689233855354983E-2</v>
+        <v>0.10788326270796711</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.476895363482706</v>
+        <v>0.60922981079688476</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5158019741482589</v>
+        <v>0.52905499708175729</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93856066858115661</v>
+        <v>0.28157353482713798</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40173511976844889</v>
+        <v>0.28338109676606427</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22508338287339935</v>
+        <v>0.69455203773482832</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88241839215692897</v>
+        <v>0.61413985134912807</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53559559093070952</v>
+        <v>0.92267846265119957</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30688314753430657</v>
+        <v>0.6224831967514195</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19946953841978954</v>
+        <v>0.53827122996907362</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -1041,43 +1044,43 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14706214272584162</v>
+        <v>0.28746278086412325</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7.112874796016444E-2</v>
+        <v>0.65766774357031377</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66798754403034144</v>
+        <v>0.13525541635930716</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15712611169074975</v>
+        <v>2.0380527574881846E-2</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0759013487998965E-2</v>
+        <v>4.1944947614406591E-2</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71360999762620858</v>
+        <v>2.5003275491554455E-2</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25616492585443384</v>
+        <v>0.8306065326826666</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45616187848262268</v>
+        <v>0.81889133330017205</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33023893928793835</v>
+        <v>9.6757738709155494E-2</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1461248924743037E-2</v>
+        <v>0.14242934196506352</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -1086,43 +1089,43 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26639754671320082</v>
+        <v>0.97194239781497171</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34368032904429724</v>
+        <v>4.2981892053809312E-2</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1419888343261041</v>
+        <v>0.53177458535668443</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92468366361015941</v>
+        <v>0.95033566522428503</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75732793492915995</v>
+        <v>0.73214944389608982</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9829105116562502E-2</v>
+        <v>0.37001063512589649</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48409904341994736</v>
+        <v>0.47751635544235871</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50180365714267472</v>
+        <v>0.67686103596195157</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73106996135357238</v>
+        <v>0.97194281581160913</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9066570316405087</v>
+        <v>0.98536549420024944</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -1131,43 +1134,43 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3031623402181798E-2</v>
+        <v>0.91340942321427498</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92949132060889961</v>
+        <v>0.45656657647995391</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70465905594809841</v>
+        <v>8.8674679205441032E-2</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13394592652584569</v>
+        <v>0.75772027007819631</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60686777905111289</v>
+        <v>0.32484641675738957</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74744854359225432</v>
+        <v>8.3720147650409915E-2</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62607146430504368</v>
+        <v>0.67612312356168058</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34902870337599945</v>
+        <v>0.43034290731174929</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44791085292086008</v>
+        <v>0.11202238398529896</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46351335676324235</v>
+        <v>0.24146395871870552</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -1176,43 +1179,43 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94117542352854522</v>
+        <v>0.21687391169982373</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43155359749190392</v>
+        <v>0.24171293045792097</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26078871858916808</v>
+        <v>0.75248865326026304</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50623023613676166</v>
+        <v>0.48824456831218921</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17333423132036485</v>
+        <v>0.96597177483453411</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51386670151158276</v>
+        <v>0.66798214592861238</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40406819618584633</v>
+        <v>0.90163094110109909</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12160199560991825</v>
+        <v>0.60194024708246952</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24771421619473166</v>
+        <v>0.86540564731024505</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98563830880171766</v>
+        <v>0.79116280614533741</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1221,43 +1224,43 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41060087117448363</v>
+        <v>0.86046200041856769</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53939678726494789</v>
+        <v>0.424258710864307</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10252493337001967</v>
+        <v>0.63237087243968093</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92168255568420898</v>
+        <v>0.79544252604300292</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96641703634427834</v>
+        <v>0.26390279260826088</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45843271480869208</v>
+        <v>0.1537706156954487</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95746363963451231</v>
+        <v>0.25456289067058213</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31888377695976988</v>
+        <v>0.79083565560522606</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1223360919574468E-2</v>
+        <v>0.16380784761092604</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86151798865769647</v>
+        <v>0.48054784918320526</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1266,43 +1269,43 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21627350134704504</v>
+        <v>0.15608613879707878</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38386043501403266</v>
+        <v>0.92233771986911617</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15105529484682456</v>
+        <v>0.79989437429562749</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32023239340287746</v>
+        <v>0.90847378009965496</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76184684856706297</v>
+        <v>3.1743052295347796E-2</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28188225691505853</v>
+        <v>0.26452137136737885</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80549531679495279</v>
+        <v>0.76970703821465947</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95628402307819338</v>
+        <v>0.55692401205304631</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.235938653629441</v>
+        <v>0.6246059104974504</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87227127637455415</v>
+        <v>1.0246277104222323E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -1311,43 +1314,43 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58235418640382597</v>
+        <v>0.56627869781298446</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9058655588379527E-2</v>
+        <v>0.90878493628040746</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81203011814437909</v>
+        <v>0.88546734641504676</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20561994208609902</v>
+        <v>0.34026907272093054</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49186898384990185</v>
+        <v>0.24654392748488996</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56319468019416652</v>
+        <v>0.18092337794363889</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61878481529060758</v>
+        <v>9.9214015838509306E-2</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82294631593109568</v>
+        <v>0.13186380656918306</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6555167089991264</v>
+        <v>0.91361802512017909</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61654342339698243</v>
+        <v>0.66524740649669856</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -1356,43 +1359,43 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31398092685445456</v>
+        <v>9.9991908398796348E-2</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64227481496555705</v>
+        <v>0.40755386792793324</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0521475834572791E-2</v>
+        <v>0.99158685684996395</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22638506845885153</v>
+        <v>0.28222964403489204</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59560402925769906</v>
+        <v>0.44149058749373726</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59227442373979278</v>
+        <v>8.3144962455050431E-2</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45719240858718913</v>
+        <v>0.77204849352204941</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62837505320403841</v>
+        <v>0.90558112458925433</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59517567267338978</v>
+        <v>0.84832999921639685</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76538477039170605</v>
+        <v>6.8777243701305335E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -1401,43 +1404,43 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58456865621972687</v>
+        <v>0.97476865537524504</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89048369487837853</v>
+        <v>0.97635799036819426</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50532882048652661</v>
+        <v>0.8742705593787099</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90509472868256946</v>
+        <v>0.19304496537950355</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47973941193006286</v>
+        <v>0.52412932118598465</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68007797670706782</v>
+        <v>2.314122999142576E-2</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59197292334757834</v>
+        <v>0.41580925336165986</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88437182360503019</v>
+        <v>6.9361215195447912E-2</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24212989864017542</v>
+        <v>0.12710104879702833</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15233278695217922</v>
+        <v>0.72597006881050696</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -1446,43 +1449,43 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90444067177719067</v>
+        <v>0.41142878501172742</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92739626715953249</v>
+        <v>0.45513338871031817</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4158816626844484E-2</v>
+        <v>0.41202614933673143</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95092066074030224</v>
+        <v>2.8202743328849533E-2</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97932682212859434</v>
+        <v>0.18156467944071897</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44026943465947799</v>
+        <v>0.28346801647842768</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79373493306145948</v>
+        <v>7.3850213564871092E-3</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17404421467296016</v>
+        <v>1.6166793811209668E-2</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1506835111735505</v>
+        <v>0.71258907015315542</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73283464471136084</v>
+        <v>0.44818585257109655</v>
       </c>
     </row>
   </sheetData>
